--- a/exposure_df_20230530.xlsx
+++ b/exposure_df_20230530.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,351 +468,326 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>000016_SH</t>
+          <t>CBA00602_CS</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3349897316654515</v>
+        <v>-1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0122313541541933</v>
+        <v>6.47136424308803e-17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9314427037374544</v>
+        <v>4.931186390934779e-18</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04834077686574272</v>
+        <v>-1.228690182005406e-17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3094382404435334</v>
+        <v>-8.472768927431095e-18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>000300_SH</t>
+          <t>CBA04031_CS</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2314991935402853</v>
+        <v>-0.3716710571533483</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0207642148405532</v>
+        <v>0.005920885950917293</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7503025870236484</v>
+        <v>-0.001496100776099792</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.06067111551873577</v>
+        <v>0.002873204860842206</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4494274420791198</v>
+        <v>-0.003478116766037078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>000905_SH</t>
+          <t>CBA02531_CS</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08289765192685117</v>
+        <v>-0.7177867339567459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03006276769593083</v>
+        <v>-2.369391513713212e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2655317849073506</v>
+        <v>-0.001732739912572776</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02796159593565465</v>
+        <v>0.001583725701628934</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7531871085285264</v>
+        <v>-0.002443560435004291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>000852_SH</t>
+          <t>HSI_HI</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00431256786412408</v>
+        <v>1.168956736134792</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01824487520883405</v>
+        <v>-0.746055742922287</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09890819960578985</v>
+        <v>0.09674571718159194</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05435242059195988</v>
+        <v>-0.04533450005737542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8671778705099834</v>
+        <v>-0.1456036134047014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HSI_HI</t>
+          <t>S0031510</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1526522049955617</v>
+        <v>0.3067053590369668</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1057478201483467</v>
+        <v>-0.2047028014270997</v>
       </c>
       <c r="E6" t="n">
-        <v>1.500062245202453</v>
+        <v>0.05783053710155163</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.008674136845163039</v>
+        <v>-0.03877294150478858</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08056412053517582</v>
+        <v>0.02347916113826906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CBA00601_CS</t>
+          <t>S0105912</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.009101800728665782</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.976723907465804</v>
+        <v>0.5340145026329847</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.001187314294315976</v>
+        <v>-0.4582592409463936</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.001707225166262819</v>
+        <v>0.1299662082505344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000398901936472064</v>
+        <v>-0.1362982769597524</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005602882268099821</v>
+        <v>-0.05835888652815337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CBA02001_CS</t>
+          <t>M0049225</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4728956933718045</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5829790071440391</v>
+        <v>1.575913347097902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001338617106463558</v>
+        <v>-0.6395819531873094</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003566567211926852</v>
+        <v>0.121251877207783</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006491987162897175</v>
+        <v>-0.02926977360818272</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00102352105987383</v>
+        <v>-0.1930695815974347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>000832_CSI</t>
+          <t>S0031525</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4862565795014587</v>
+        <v>2.457508469244476</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04417365218796424</v>
+        <v>-0.666674314897797</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2367378966331264</v>
+        <v>0.1770185187280533</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1728987506566818</v>
+        <v>-0.294580907367191</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3152210526344407</v>
+        <v>-0.2769936065532813</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NH0200_NHF</t>
+          <t>S0143884</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1105621750351036</v>
+        <v>0.3925268391989661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04247842927875914</v>
+        <v>-0.06806760066079423</v>
       </c>
       <c r="E10" t="n">
-        <v>1.114436382892216</v>
+        <v>-0.02488282595138493</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3063249095867747</v>
+        <v>-0.01623180508478523</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06021399248945709</v>
+        <v>-0.0574174327339828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>NH0300_NHF</t>
+          <t>S0179664</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1005015082902793</v>
+        <v>0.3501680818527805</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007186427304703594</v>
+        <v>0.1002108852350063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2985225460948286</v>
+        <v>0.07918532520907723</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1182993556626846</v>
+        <v>-0.1305599274362344</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01282530885272207</v>
+        <v>0.02099073906045016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>B_IPE</t>
+          <t>M0049385</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1052457986070442</v>
+        <v>1.295069637423023</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02721746195112256</v>
+        <v>-0.4305664161540083</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1624192202398186</v>
+        <v>0.1011774879401359</v>
       </c>
       <c r="F12" t="n">
-        <v>2.225989688079933</v>
+        <v>-0.07375360372288935</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04394017825272466</v>
+        <v>-0.2166722276301886</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AU9999_SGE</t>
+          <t>M0049387</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5869554000794088</v>
+        <v>0.9968992846874556</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5583342560880852</v>
+        <v>-0.2814287829018294</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08083427054274116</v>
+        <v>0.1194372802634458</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02516536278691385</v>
+        <v>-0.09352826775848722</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008700628977225143</v>
+        <v>-0.3548271394173789</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SPX_GI</t>
+          <t>M0000271</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1800273735934413</v>
+        <v>-2.881664814176806e-17</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2954316669850864</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5934064230240572</v>
+        <v>3.891982222614665e-17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2212653833409312</v>
+        <v>-5.60347486004235e-17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03779007219510552</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>USDCNH_FX</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.1233940547488292</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2355543972524997</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.09377187213970213</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.001254261849948063</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.001059112285706143</v>
+        <v>-1.867238279505227e-16</v>
       </c>
     </row>
   </sheetData>
